--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,90 +40,93 @@
     <t>name</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>worst</t>
+    <t>boring</t>
   </si>
   <si>
     <t>worse</t>
   </si>
   <si>
-    <t>uncomfortable</t>
+    <t>weird</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
     <t>stupid</t>
   </si>
   <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>disturbing</t>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>scary</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -133,36 +136,48 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
@@ -176,6 +191,15 @@
   </si>
   <si>
     <t>media</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>…</t>
@@ -539,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,10 +635,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -679,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9423076923076923</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.84</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9242424242424242</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>0.6842105263157895</v>
@@ -908,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.6206896551724138</v>
+        <v>0.6</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.875</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.5333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1008,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,16 +1053,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.48</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1050,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1058,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1076,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.3333333333333333</v>
+        <v>0.52</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1100,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1108,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1126,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L13">
         <v>8</v>
@@ -1150,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1158,13 +1182,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1176,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.1951219512195122</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L14">
         <v>8</v>
@@ -1200,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1208,13 +1232,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1226,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.1666666666666667</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1250,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1258,13 +1282,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6470588235294118</v>
+        <v>0.625</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1279,16 +1303,16 @@
         <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.1296296296296296</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="L16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1300,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1308,13 +1332,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6153846153846154</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1326,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.06830601092896176</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L17">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1350,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1023</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1358,7 +1382,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6153846153846154</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1376,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.04240282685512368</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1400,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>271</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1408,13 +1432,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5579710144927537</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1426,19 +1450,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.01807228915662651</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1450,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>652</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1458,13 +1482,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4705882352941176</v>
+        <v>0.55</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1476,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.004032258064516129</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1500,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1729</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1508,13 +1532,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.463768115942029</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1526,7 +1550,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>74</v>
+        <v>13</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21">
+        <v>0.08196721311475409</v>
+      </c>
+      <c r="L21">
+        <v>90</v>
+      </c>
+      <c r="M21">
+        <v>90</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1008</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1534,13 +1582,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1552,7 +1600,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22">
+        <v>0.04240282685512368</v>
+      </c>
+      <c r="L22">
+        <v>12</v>
+      </c>
+      <c r="M22">
+        <v>12</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1560,13 +1632,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3617021276595745</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1578,7 +1650,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23">
+        <v>0.02259036144578313</v>
+      </c>
+      <c r="L23">
+        <v>15</v>
+      </c>
+      <c r="M23">
+        <v>15</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>649</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1586,13 +1682,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3571428571428572</v>
+        <v>0.4</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1604,7 +1700,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24">
+        <v>0.01298701298701299</v>
+      </c>
+      <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>608</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1612,13 +1732,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3571428571428572</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1630,7 +1750,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25">
+        <v>0.01152368758002561</v>
+      </c>
+      <c r="L25">
+        <v>9</v>
+      </c>
+      <c r="M25">
+        <v>9</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>772</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1638,13 +1782,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.35</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1656,7 +1800,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26">
+        <v>0.01111111111111111</v>
+      </c>
+      <c r="L26">
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1684,19 +1852,43 @@
       <c r="H27">
         <v>15</v>
       </c>
+      <c r="J27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27">
+        <v>0.004608294930875576</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+      <c r="M27">
+        <v>8</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1728</v>
+      </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3461538461538461</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1708,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1716,13 +1908,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1734,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1742,13 +1934,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2916666666666667</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1760,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1768,13 +1960,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1282051282051282</v>
+        <v>0.25</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1786,7 +1978,33 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>68</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
